--- a/RQ2/PA Weekly Scores.xlsx
+++ b/RQ2/PA Weekly Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keshab\Documents\transfer-students-research\RQ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C74821D-4603-4F66-A123-E2DE6A84B768}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D67FA-7BAA-4656-9C3D-00C98EE332CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{53C2A1CD-4F46-4C1F-8CF0-220A72596535}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
   <si>
     <t>CS 1:</t>
   </si>
@@ -144,6 +144,45 @@
   </si>
   <si>
     <t>Native Mean: 72.34873943109758</t>
+  </si>
+  <si>
+    <t>RBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Std Deviation: 15.39606525195252  </t>
+  </si>
+  <si>
+    <t>Native Std Deviation: 12.415977741521507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Median: 76.52777777777777  </t>
+  </si>
+  <si>
+    <t>Native Median: 83.33333333333333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Std Deviation: 12.43924082813749  </t>
+  </si>
+  <si>
+    <t>Native Std Deviation: 4.293186527173096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Median: 89.43333333000001  </t>
+  </si>
+  <si>
+    <t>Native Median: 90.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Std Deviation: 16.880723905427352  </t>
+  </si>
+  <si>
+    <t>Native Std Deviation: 15.18548780188704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfer Median: 68.452183335  </t>
+  </si>
+  <si>
+    <t>Native Median: 77.68853333499999</t>
   </si>
 </sst>
 </file>
@@ -547,23 +586,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361B1453-CF2F-41AB-89F1-E3B8EB99AC77}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="4" t="s">
         <v>1</v>
@@ -601,8 +640,11 @@
       <c r="M3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -637,13 +679,16 @@
         <v>-4.2875819999999996</v>
       </c>
       <c r="L4" s="6">
-        <v>2.7434E-2</v>
+        <v>5.4869000000000001E-2</v>
       </c>
       <c r="M4" s="6">
         <v>11848</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" s="6">
+        <v>0.13957900000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -678,13 +723,16 @@
         <v>-5.7717859999999996</v>
       </c>
       <c r="L5" s="7">
-        <v>1.0707E-2</v>
+        <v>2.1413999999999999E-2</v>
       </c>
       <c r="M5" s="7">
         <v>11462.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" s="7">
+        <v>0.167574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>2</v>
       </c>
@@ -719,13 +767,16 @@
         <v>-5.5860019999999997</v>
       </c>
       <c r="L6" s="6">
-        <v>1.4994E-2</v>
+        <v>2.9988999999999998E-2</v>
       </c>
       <c r="M6" s="6">
         <v>11438.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" s="6">
+        <v>0.169317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -760,13 +811,16 @@
         <v>-5.0882350000000001</v>
       </c>
       <c r="L7" s="7">
-        <v>1.9394000000000002E-2</v>
+        <v>3.8788000000000003E-2</v>
       </c>
       <c r="M7" s="7">
         <v>11685.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7" s="7">
+        <v>0.15137999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>4</v>
       </c>
@@ -801,13 +855,16 @@
         <v>-9.5204249999999995</v>
       </c>
       <c r="L8" s="6">
-        <v>4.7399999999999997E-4</v>
+        <v>9.4799999999999995E-4</v>
       </c>
       <c r="M8" s="6">
         <v>10377</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N8" s="6">
+        <v>0.24640500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -842,13 +899,16 @@
         <v>-11.553649</v>
       </c>
       <c r="L9" s="7">
-        <v>2.4000000000000001E-5</v>
+        <v>4.8000000000000001E-5</v>
       </c>
       <c r="M9" s="7">
         <v>9486.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" s="7">
+        <v>0.31107499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>6</v>
       </c>
@@ -883,13 +943,16 @@
         <v>-15.089325000000001</v>
       </c>
       <c r="L10" s="6">
-        <v>2.0999999999999999E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="M10" s="6">
         <v>9567</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N10" s="6">
+        <v>0.30522899999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -924,269 +987,131 @@
         <v>-10.692919</v>
       </c>
       <c r="L11" s="7">
-        <v>2.4983000000000002E-2</v>
+        <v>4.9966000000000003E-2</v>
       </c>
       <c r="M11" s="7">
         <v>11642.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N11" s="7">
+        <v>0.154503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+      <c r="N24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="5">
         <v>0</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="6">
-        <v>100</v>
-      </c>
-      <c r="D21" s="6">
+      <c r="C25" s="6">
+        <v>100</v>
+      </c>
+      <c r="D25" s="6">
         <v>99.730457999999999</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E25" s="6">
         <v>0</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F25" s="6">
         <v>5.1917410000000004</v>
-      </c>
-      <c r="G21" s="6">
-        <v>100</v>
-      </c>
-      <c r="H21" s="6">
-        <v>100</v>
-      </c>
-      <c r="I21" s="6">
-        <v>43</v>
-      </c>
-      <c r="J21" s="6">
-        <v>371</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0.269542</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0.36974499999999999</v>
-      </c>
-      <c r="M21" s="6">
-        <v>7955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7">
-        <v>95.813952999999998</v>
-      </c>
-      <c r="D22" s="7">
-        <v>97.771788000000001</v>
-      </c>
-      <c r="E22" s="7">
-        <v>9.0878440000000005</v>
-      </c>
-      <c r="F22" s="7">
-        <v>8.7305700000000002</v>
-      </c>
-      <c r="G22" s="7">
-        <v>100</v>
-      </c>
-      <c r="H22" s="7">
-        <v>100</v>
-      </c>
-      <c r="I22" s="7">
-        <v>43</v>
-      </c>
-      <c r="J22" s="7">
-        <v>371</v>
-      </c>
-      <c r="K22" s="7">
-        <v>-1.9578340000000001</v>
-      </c>
-      <c r="L22" s="7">
-        <v>2.9E-4</v>
-      </c>
-      <c r="M22" s="7">
-        <v>6651.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <v>2</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="6">
-        <v>94.263565999999997</v>
-      </c>
-      <c r="D23" s="6">
-        <v>98.041330000000002</v>
-      </c>
-      <c r="E23" s="6">
-        <v>16.624161000000001</v>
-      </c>
-      <c r="F23" s="6">
-        <v>7.9107310000000002</v>
-      </c>
-      <c r="G23" s="6">
-        <v>100</v>
-      </c>
-      <c r="H23" s="6">
-        <v>100</v>
-      </c>
-      <c r="I23" s="6">
-        <v>43</v>
-      </c>
-      <c r="J23" s="6">
-        <v>371</v>
-      </c>
-      <c r="K23" s="6">
-        <v>-3.7777639999999999</v>
-      </c>
-      <c r="L23" s="6">
-        <v>2.1800000000000001E-3</v>
-      </c>
-      <c r="M23" s="6">
-        <v>6767.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="4">
-        <v>3</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="7">
-        <v>93.953487999999993</v>
-      </c>
-      <c r="D24" s="7">
-        <v>98.364779999999996</v>
-      </c>
-      <c r="E24" s="7">
-        <v>17.687107000000001</v>
-      </c>
-      <c r="F24" s="7">
-        <v>6.0297489999999998</v>
-      </c>
-      <c r="G24" s="7">
-        <v>100</v>
-      </c>
-      <c r="H24" s="7">
-        <v>100</v>
-      </c>
-      <c r="I24" s="7">
-        <v>43</v>
-      </c>
-      <c r="J24" s="7">
-        <v>371</v>
-      </c>
-      <c r="K24" s="7">
-        <v>-4.4112920000000004</v>
-      </c>
-      <c r="L24" s="7">
-        <v>5.6224000000000003E-2</v>
-      </c>
-      <c r="M24" s="7">
-        <v>7365</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <v>4</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="6">
-        <v>92.248062000000004</v>
-      </c>
-      <c r="D25" s="6">
-        <v>98.382749000000004</v>
-      </c>
-      <c r="E25" s="6">
-        <v>21.866852000000002</v>
-      </c>
-      <c r="F25" s="6">
-        <v>5.9846360000000001</v>
       </c>
       <c r="G25" s="6">
         <v>100</v>
@@ -1201,33 +1126,36 @@
         <v>371</v>
       </c>
       <c r="K25" s="6">
-        <v>-6.1346869999999996</v>
+        <v>0.269542</v>
       </c>
       <c r="L25" s="6">
-        <v>1.8468999999999999E-2</v>
+        <v>0.73949100000000001</v>
       </c>
       <c r="M25" s="6">
-        <v>7091.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+        <v>7998</v>
+      </c>
+      <c r="N25" s="6">
+        <v>-2.6949999999999999E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C26" s="7">
-        <v>95.348837000000003</v>
+        <v>95.813952999999998</v>
       </c>
       <c r="D26" s="7">
-        <v>99.142366999999993</v>
+        <v>97.771788000000001</v>
       </c>
       <c r="E26" s="7">
-        <v>20.363876999999999</v>
+        <v>9.0878440000000005</v>
       </c>
       <c r="F26" s="7">
-        <v>7.005185</v>
+        <v>8.7305700000000002</v>
       </c>
       <c r="G26" s="7">
         <v>100</v>
@@ -1242,33 +1170,36 @@
         <v>371</v>
       </c>
       <c r="K26" s="7">
-        <v>-3.7935300000000001</v>
+        <v>-1.9578340000000001</v>
       </c>
       <c r="L26" s="7">
-        <v>3.0391999999999999E-2</v>
+        <v>5.8100000000000003E-4</v>
       </c>
       <c r="M26" s="7">
-        <v>7588</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+        <v>6651.5</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0.16611300000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C27" s="6">
         <v>94.263565999999997</v>
       </c>
       <c r="D27" s="6">
-        <v>98.849954999999994</v>
+        <v>98.041330000000002</v>
       </c>
       <c r="E27" s="6">
-        <v>21.409655000000001</v>
+        <v>16.624161000000001</v>
       </c>
       <c r="F27" s="6">
-        <v>7.9106079999999999</v>
+        <v>7.9107310000000002</v>
       </c>
       <c r="G27" s="6">
         <v>100</v>
@@ -1283,33 +1214,36 @@
         <v>371</v>
       </c>
       <c r="K27" s="6">
-        <v>-4.5863889999999996</v>
+        <v>-3.7777639999999999</v>
       </c>
       <c r="L27" s="6">
-        <v>2.0676E-2</v>
+        <v>4.3610000000000003E-3</v>
       </c>
       <c r="M27" s="6">
-        <v>7316.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+        <v>6767.5</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0.15157000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C28" s="7">
-        <v>92.372093000000007</v>
+        <v>93.953487999999993</v>
       </c>
       <c r="D28" s="7">
-        <v>97.050134999999997</v>
+        <v>98.364779999999996</v>
       </c>
       <c r="E28" s="7">
-        <v>21.365825000000001</v>
+        <v>17.687107000000001</v>
       </c>
       <c r="F28" s="7">
-        <v>11.290013</v>
+        <v>6.0297489999999998</v>
       </c>
       <c r="G28" s="7">
         <v>100</v>
@@ -1324,33 +1258,36 @@
         <v>371</v>
       </c>
       <c r="K28" s="7">
-        <v>-4.6780419999999996</v>
+        <v>-4.4112920000000004</v>
       </c>
       <c r="L28" s="7">
-        <v>1.6076E-2</v>
+        <v>0.11244800000000001</v>
       </c>
       <c r="M28" s="7">
-        <v>6760</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+        <v>7365</v>
+      </c>
+      <c r="N28" s="7">
+        <v>7.6662999999999995E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C29" s="6">
-        <v>89.503876000000005</v>
+        <v>92.248062000000004</v>
       </c>
       <c r="D29" s="6">
-        <v>97.905659999999997</v>
+        <v>98.382749000000004</v>
       </c>
       <c r="E29" s="6">
-        <v>24.453320999999999</v>
+        <v>21.866852000000002</v>
       </c>
       <c r="F29" s="6">
-        <v>8.2856159999999992</v>
+        <v>5.9846360000000001</v>
       </c>
       <c r="G29" s="6">
         <v>100</v>
@@ -1365,442 +1302,316 @@
         <v>371</v>
       </c>
       <c r="K29" s="6">
+        <v>-6.1346869999999996</v>
+      </c>
+      <c r="L29" s="6">
+        <v>3.6939E-2</v>
+      </c>
+      <c r="M29" s="6">
+        <v>7091.5</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0.11095099999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>5</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="7">
+        <v>95.348837000000003</v>
+      </c>
+      <c r="D30" s="7">
+        <v>99.142366999999993</v>
+      </c>
+      <c r="E30" s="7">
+        <v>20.363876999999999</v>
+      </c>
+      <c r="F30" s="7">
+        <v>7.005185</v>
+      </c>
+      <c r="G30" s="7">
+        <v>100</v>
+      </c>
+      <c r="H30" s="7">
+        <v>100</v>
+      </c>
+      <c r="I30" s="7">
+        <v>43</v>
+      </c>
+      <c r="J30" s="7">
+        <v>371</v>
+      </c>
+      <c r="K30" s="7">
+        <v>-3.7935300000000001</v>
+      </c>
+      <c r="L30" s="7">
+        <v>6.0783999999999998E-2</v>
+      </c>
+      <c r="M30" s="7">
+        <v>7588</v>
+      </c>
+      <c r="N30" s="7">
+        <v>4.8705999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="5">
+        <v>6</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="6">
+        <v>94.263565999999997</v>
+      </c>
+      <c r="D31" s="6">
+        <v>98.849954999999994</v>
+      </c>
+      <c r="E31" s="6">
+        <v>21.409655000000001</v>
+      </c>
+      <c r="F31" s="6">
+        <v>7.9106079999999999</v>
+      </c>
+      <c r="G31" s="6">
+        <v>100</v>
+      </c>
+      <c r="H31" s="6">
+        <v>100</v>
+      </c>
+      <c r="I31" s="6">
+        <v>43</v>
+      </c>
+      <c r="J31" s="6">
+        <v>371</v>
+      </c>
+      <c r="K31" s="6">
+        <v>-4.5863889999999996</v>
+      </c>
+      <c r="L31" s="6">
+        <v>4.1350999999999999E-2</v>
+      </c>
+      <c r="M31" s="6">
+        <v>7316.5</v>
+      </c>
+      <c r="N31" s="6">
+        <v>8.2742999999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>7</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="7">
+        <v>92.372093000000007</v>
+      </c>
+      <c r="D32" s="7">
+        <v>97.050134999999997</v>
+      </c>
+      <c r="E32" s="7">
+        <v>21.365825000000001</v>
+      </c>
+      <c r="F32" s="7">
+        <v>11.290013</v>
+      </c>
+      <c r="G32" s="7">
+        <v>100</v>
+      </c>
+      <c r="H32" s="7">
+        <v>100</v>
+      </c>
+      <c r="I32" s="7">
+        <v>43</v>
+      </c>
+      <c r="J32" s="7">
+        <v>371</v>
+      </c>
+      <c r="K32" s="7">
+        <v>-4.6780419999999996</v>
+      </c>
+      <c r="L32" s="7">
+        <v>3.2153000000000001E-2</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6760</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0.15251000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>8</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="6">
+        <v>89.503876000000005</v>
+      </c>
+      <c r="D33" s="6">
+        <v>97.905659999999997</v>
+      </c>
+      <c r="E33" s="6">
+        <v>24.453320999999999</v>
+      </c>
+      <c r="F33" s="6">
+        <v>8.2856159999999992</v>
+      </c>
+      <c r="G33" s="6">
+        <v>100</v>
+      </c>
+      <c r="H33" s="6">
+        <v>100</v>
+      </c>
+      <c r="I33" s="6">
+        <v>43</v>
+      </c>
+      <c r="J33" s="6">
+        <v>371</v>
+      </c>
+      <c r="K33" s="6">
         <v>-8.4017839999999993</v>
       </c>
-      <c r="L29" s="6">
-        <v>1.601E-3</v>
-      </c>
-      <c r="M29" s="6">
+      <c r="L33" s="6">
+        <v>3.202E-3</v>
+      </c>
+      <c r="M33" s="6">
         <v>6715.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="N33" s="6">
+        <v>0.15808900000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4" t="s">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H46" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I38" s="4" t="s">
+      <c r="I46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J38" s="4" t="s">
+      <c r="J46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K46" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M38" s="4" t="s">
+      <c r="M46" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
+      <c r="N46" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="5">
         <v>0</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C47" s="6">
         <v>83.935484000000002</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D47" s="6">
         <v>92.731707</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E47" s="6">
         <v>28.937394999999999</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F47" s="6">
         <v>21.580522999999999</v>
       </c>
-      <c r="G39" s="6">
-        <v>100</v>
-      </c>
-      <c r="H39" s="6">
-        <v>100</v>
-      </c>
-      <c r="I39" s="6">
-        <v>62</v>
-      </c>
-      <c r="J39" s="6">
-        <v>164</v>
-      </c>
-      <c r="K39" s="6">
-        <v>-8.7962229999999995</v>
-      </c>
-      <c r="L39" s="6">
-        <v>8.8099999999999995E-4</v>
-      </c>
-      <c r="M39" s="6">
-        <v>4018</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="4">
-        <v>1</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="7">
-        <v>65.608064999999996</v>
-      </c>
-      <c r="D40" s="7">
-        <v>77.412194999999997</v>
-      </c>
-      <c r="E40" s="7">
-        <v>25.672969999999999</v>
-      </c>
-      <c r="F40" s="7">
-        <v>18.397732999999999</v>
-      </c>
-      <c r="G40" s="7">
-        <v>71.666667000000004</v>
-      </c>
-      <c r="H40" s="7">
-        <v>82.066666999999995</v>
-      </c>
-      <c r="I40" s="7">
-        <v>62</v>
-      </c>
-      <c r="J40" s="7">
-        <v>164</v>
-      </c>
-      <c r="K40" s="7">
-        <v>-11.804131</v>
-      </c>
-      <c r="L40" s="7">
-        <v>2.0699999999999999E-4</v>
-      </c>
-      <c r="M40" s="7">
-        <v>3535</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
-        <v>2</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="6">
-        <v>71.306989000000002</v>
-      </c>
-      <c r="D41" s="6">
-        <v>78.874593000000004</v>
-      </c>
-      <c r="E41" s="6">
-        <v>22.439995</v>
-      </c>
-      <c r="F41" s="6">
-        <v>21.526926</v>
-      </c>
-      <c r="G41" s="6">
-        <v>77.016666999999998</v>
-      </c>
-      <c r="H41" s="6">
-        <v>85.783332999999999</v>
-      </c>
-      <c r="I41" s="6">
-        <v>62</v>
-      </c>
-      <c r="J41" s="6">
-        <v>164</v>
-      </c>
-      <c r="K41" s="6">
-        <v>-7.5676040000000002</v>
-      </c>
-      <c r="L41" s="6">
-        <v>1.6609999999999999E-3</v>
-      </c>
-      <c r="M41" s="6">
-        <v>3796</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
-        <v>3</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="7">
-        <v>72.5</v>
-      </c>
-      <c r="D42" s="7">
-        <v>78.887195000000006</v>
-      </c>
-      <c r="E42" s="7">
-        <v>28.403561</v>
-      </c>
-      <c r="F42" s="7">
-        <v>26.202306</v>
-      </c>
-      <c r="G42" s="7">
-        <v>80</v>
-      </c>
-      <c r="H42" s="7">
-        <v>90</v>
-      </c>
-      <c r="I42" s="7">
-        <v>62</v>
-      </c>
-      <c r="J42" s="7">
-        <v>164</v>
-      </c>
-      <c r="K42" s="7">
-        <v>-6.3871950000000002</v>
-      </c>
-      <c r="L42" s="7">
-        <v>2.6919999999999999E-2</v>
-      </c>
-      <c r="M42" s="7">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
-        <v>4</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="6">
-        <v>60.709676999999999</v>
-      </c>
-      <c r="D43" s="6">
-        <v>67.507805000000005</v>
-      </c>
-      <c r="E43" s="6">
-        <v>28.485120999999999</v>
-      </c>
-      <c r="F43" s="6">
-        <v>27.749333</v>
-      </c>
-      <c r="G43" s="6">
-        <v>62.64</v>
-      </c>
-      <c r="H43" s="6">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="I43" s="6">
-        <v>62</v>
-      </c>
-      <c r="J43" s="6">
-        <v>164</v>
-      </c>
-      <c r="K43" s="6">
-        <v>-6.798127</v>
-      </c>
-      <c r="L43" s="6">
-        <v>5.1382999999999998E-2</v>
-      </c>
-      <c r="M43" s="6">
-        <v>4368</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="4">
-        <v>5</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" s="7">
-        <v>69.166290000000004</v>
-      </c>
-      <c r="D44" s="7">
-        <v>78.072560999999993</v>
-      </c>
-      <c r="E44" s="7">
-        <v>23.91657</v>
-      </c>
-      <c r="F44" s="7">
-        <v>22.152826999999998</v>
-      </c>
-      <c r="G44" s="7">
-        <v>74.424999999999997</v>
-      </c>
-      <c r="H44" s="7">
-        <v>85.465000000000003</v>
-      </c>
-      <c r="I44" s="7">
-        <v>62</v>
-      </c>
-      <c r="J44" s="7">
-        <v>164</v>
-      </c>
-      <c r="K44" s="7">
-        <v>-8.9062710000000003</v>
-      </c>
-      <c r="L44" s="7">
-        <v>1.621E-3</v>
-      </c>
-      <c r="M44" s="7">
-        <v>3792.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
-        <v>6</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="6">
-        <v>78.412257999999994</v>
-      </c>
-      <c r="D45" s="6">
-        <v>85.224243999999999</v>
-      </c>
-      <c r="E45" s="6">
-        <v>24.581890000000001</v>
-      </c>
-      <c r="F45" s="6">
-        <v>20.473631000000001</v>
-      </c>
-      <c r="G45" s="6">
-        <v>87.78</v>
-      </c>
-      <c r="H45" s="6">
-        <v>93.111999999999995</v>
-      </c>
-      <c r="I45" s="6">
-        <v>62</v>
-      </c>
-      <c r="J45" s="6">
-        <v>164</v>
-      </c>
-      <c r="K45" s="6">
-        <v>-6.8119860000000001</v>
-      </c>
-      <c r="L45" s="6">
-        <v>1.4772E-2</v>
-      </c>
-      <c r="M45" s="6">
-        <v>4129.5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="4">
-        <v>7</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="7">
-        <v>73.930215000000004</v>
-      </c>
-      <c r="D46" s="7">
-        <v>82.395202999999995</v>
-      </c>
-      <c r="E46" s="7">
-        <v>25.724314</v>
-      </c>
-      <c r="F46" s="7">
-        <v>21.519120999999998</v>
-      </c>
-      <c r="G46" s="7">
-        <v>80.296666999999999</v>
-      </c>
-      <c r="H46" s="7">
-        <v>90.18</v>
-      </c>
-      <c r="I46" s="7">
-        <v>62</v>
-      </c>
-      <c r="J46" s="7">
-        <v>164</v>
-      </c>
-      <c r="K46" s="7">
-        <v>-8.464988</v>
-      </c>
-      <c r="L46" s="7">
-        <v>2.0330000000000001E-3</v>
-      </c>
-      <c r="M46" s="7">
-        <v>3825</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
-        <v>8</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="6">
-        <v>73.407499999999999</v>
-      </c>
-      <c r="D47" s="6">
-        <v>82.381889999999999</v>
-      </c>
-      <c r="E47" s="6">
-        <v>30.006903999999999</v>
-      </c>
-      <c r="F47" s="6">
-        <v>24.655462</v>
-      </c>
       <c r="G47" s="6">
-        <v>88.165000000000006</v>
+        <v>100</v>
       </c>
       <c r="H47" s="6">
-        <v>92.972499999999997</v>
+        <v>100</v>
       </c>
       <c r="I47" s="6">
         <v>62</v>
@@ -1809,38 +1620,413 @@
         <v>164</v>
       </c>
       <c r="K47" s="6">
+        <v>-8.7962229999999995</v>
+      </c>
+      <c r="L47" s="6">
+        <v>1.7619999999999999E-3</v>
+      </c>
+      <c r="M47" s="6">
+        <v>4018</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0.209677</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="4">
+        <v>1</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="7">
+        <v>65.608064999999996</v>
+      </c>
+      <c r="D48" s="7">
+        <v>77.412194999999997</v>
+      </c>
+      <c r="E48" s="7">
+        <v>25.672969999999999</v>
+      </c>
+      <c r="F48" s="7">
+        <v>18.397732999999999</v>
+      </c>
+      <c r="G48" s="7">
+        <v>71.666667000000004</v>
+      </c>
+      <c r="H48" s="7">
+        <v>82.066666999999995</v>
+      </c>
+      <c r="I48" s="7">
+        <v>62</v>
+      </c>
+      <c r="J48" s="7">
+        <v>164</v>
+      </c>
+      <c r="K48" s="7">
+        <v>-11.804131</v>
+      </c>
+      <c r="L48" s="7">
+        <v>4.1399999999999998E-4</v>
+      </c>
+      <c r="M48" s="7">
+        <v>3535</v>
+      </c>
+      <c r="N48" s="7">
+        <v>0.30468099999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" s="5">
+        <v>2</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="6">
+        <v>71.306989000000002</v>
+      </c>
+      <c r="D49" s="6">
+        <v>78.874593000000004</v>
+      </c>
+      <c r="E49" s="6">
+        <v>22.439995</v>
+      </c>
+      <c r="F49" s="6">
+        <v>21.526926</v>
+      </c>
+      <c r="G49" s="6">
+        <v>77.016666999999998</v>
+      </c>
+      <c r="H49" s="6">
+        <v>85.783332999999999</v>
+      </c>
+      <c r="I49" s="6">
+        <v>62</v>
+      </c>
+      <c r="J49" s="6">
+        <v>164</v>
+      </c>
+      <c r="K49" s="6">
+        <v>-7.5676040000000002</v>
+      </c>
+      <c r="L49" s="6">
+        <v>3.3219999999999999E-3</v>
+      </c>
+      <c r="M49" s="6">
+        <v>3796</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0.25334400000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>3</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="7">
+        <v>72.5</v>
+      </c>
+      <c r="D50" s="7">
+        <v>78.887195000000006</v>
+      </c>
+      <c r="E50" s="7">
+        <v>28.403561</v>
+      </c>
+      <c r="F50" s="7">
+        <v>26.202306</v>
+      </c>
+      <c r="G50" s="7">
+        <v>80</v>
+      </c>
+      <c r="H50" s="7">
+        <v>90</v>
+      </c>
+      <c r="I50" s="7">
+        <v>62</v>
+      </c>
+      <c r="J50" s="7">
+        <v>164</v>
+      </c>
+      <c r="K50" s="7">
+        <v>-6.3871950000000002</v>
+      </c>
+      <c r="L50" s="7">
+        <v>5.3838999999999998E-2</v>
+      </c>
+      <c r="M50" s="7">
+        <v>4240</v>
+      </c>
+      <c r="N50" s="7">
+        <v>0.16601099999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51" s="5">
+        <v>4</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="6">
+        <v>60.709676999999999</v>
+      </c>
+      <c r="D51" s="6">
+        <v>67.507805000000005</v>
+      </c>
+      <c r="E51" s="6">
+        <v>28.485120999999999</v>
+      </c>
+      <c r="F51" s="6">
+        <v>27.749333</v>
+      </c>
+      <c r="G51" s="6">
+        <v>62.64</v>
+      </c>
+      <c r="H51" s="6">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="I51" s="6">
+        <v>62</v>
+      </c>
+      <c r="J51" s="6">
+        <v>164</v>
+      </c>
+      <c r="K51" s="6">
+        <v>-6.798127</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0.102767</v>
+      </c>
+      <c r="M51" s="6">
+        <v>4368</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0.14083399999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>5</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="7">
+        <v>69.166290000000004</v>
+      </c>
+      <c r="D52" s="7">
+        <v>78.072560999999993</v>
+      </c>
+      <c r="E52" s="7">
+        <v>23.91657</v>
+      </c>
+      <c r="F52" s="7">
+        <v>22.152826999999998</v>
+      </c>
+      <c r="G52" s="7">
+        <v>74.424999999999997</v>
+      </c>
+      <c r="H52" s="7">
+        <v>85.465000000000003</v>
+      </c>
+      <c r="I52" s="7">
+        <v>62</v>
+      </c>
+      <c r="J52" s="7">
+        <v>164</v>
+      </c>
+      <c r="K52" s="7">
+        <v>-8.9062710000000003</v>
+      </c>
+      <c r="L52" s="7">
+        <v>3.241E-3</v>
+      </c>
+      <c r="M52" s="7">
+        <v>3792.5</v>
+      </c>
+      <c r="N52" s="7">
+        <v>0.25403199999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" s="5">
+        <v>6</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="6">
+        <v>78.412257999999994</v>
+      </c>
+      <c r="D53" s="6">
+        <v>85.224243999999999</v>
+      </c>
+      <c r="E53" s="6">
+        <v>24.581890000000001</v>
+      </c>
+      <c r="F53" s="6">
+        <v>20.473631000000001</v>
+      </c>
+      <c r="G53" s="6">
+        <v>87.78</v>
+      </c>
+      <c r="H53" s="6">
+        <v>93.111999999999995</v>
+      </c>
+      <c r="I53" s="6">
+        <v>62</v>
+      </c>
+      <c r="J53" s="6">
+        <v>164</v>
+      </c>
+      <c r="K53" s="6">
+        <v>-6.8119860000000001</v>
+      </c>
+      <c r="L53" s="6">
+        <v>2.9544000000000001E-2</v>
+      </c>
+      <c r="M53" s="6">
+        <v>4129.5</v>
+      </c>
+      <c r="N53" s="6">
+        <v>0.187746</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>7</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="7">
+        <v>73.930215000000004</v>
+      </c>
+      <c r="D54" s="7">
+        <v>82.395202999999995</v>
+      </c>
+      <c r="E54" s="7">
+        <v>25.724314</v>
+      </c>
+      <c r="F54" s="7">
+        <v>21.519120999999998</v>
+      </c>
+      <c r="G54" s="7">
+        <v>80.296666999999999</v>
+      </c>
+      <c r="H54" s="7">
+        <v>90.18</v>
+      </c>
+      <c r="I54" s="7">
+        <v>62</v>
+      </c>
+      <c r="J54" s="7">
+        <v>164</v>
+      </c>
+      <c r="K54" s="7">
+        <v>-8.464988</v>
+      </c>
+      <c r="L54" s="7">
+        <v>4.0660000000000002E-3</v>
+      </c>
+      <c r="M54" s="7">
+        <v>3825</v>
+      </c>
+      <c r="N54" s="7">
+        <v>0.24764</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" s="5">
+        <v>8</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="6">
+        <v>73.407499999999999</v>
+      </c>
+      <c r="D55" s="6">
+        <v>82.381889999999999</v>
+      </c>
+      <c r="E55" s="6">
+        <v>30.006903999999999</v>
+      </c>
+      <c r="F55" s="6">
+        <v>24.655462</v>
+      </c>
+      <c r="G55" s="6">
+        <v>88.165000000000006</v>
+      </c>
+      <c r="H55" s="6">
+        <v>92.972499999999997</v>
+      </c>
+      <c r="I55" s="6">
+        <v>62</v>
+      </c>
+      <c r="J55" s="6">
+        <v>164</v>
+      </c>
+      <c r="K55" s="6">
         <v>-8.9743899999999996</v>
       </c>
-      <c r="L47" s="6">
-        <v>4.4782000000000002E-2</v>
-      </c>
-      <c r="M47" s="6">
+      <c r="L55" s="6">
+        <v>8.9563000000000004E-2</v>
+      </c>
+      <c r="M55" s="6">
         <v>4340</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+      <c r="N55" s="6">
+        <v>0.146341</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/RQ2/PA Weekly Scores.xlsx
+++ b/RQ2/PA Weekly Scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Keshab\Documents\transfer-students-research\RQ2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9D67FA-7BAA-4656-9C3D-00C98EE332CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D94049-E50F-4E10-8411-9E9255B2EB6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{53C2A1CD-4F46-4C1F-8CF0-220A72596535}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
   <si>
     <t>CS 1:</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Test Statistics: 8602.0</t>
   </si>
   <si>
-    <t>p-Value: 1.11990239625983e-06</t>
-  </si>
-  <si>
     <t>Transfer Mean: 71.90092592592596</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>Test Statistics: 7460.5</t>
   </si>
   <si>
-    <t>p-Value: 0.21853966881395465</t>
-  </si>
-  <si>
     <t>Transfer Mean: 84.87674418558136</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>Test Statistics: 3452.0</t>
   </si>
   <si>
-    <t>p-Value: 9.95976607365601e-05</t>
-  </si>
-  <si>
     <t>Transfer Mean: 64.99764784887095</t>
   </si>
   <si>
@@ -183,6 +174,24 @@
   </si>
   <si>
     <t>Native Median: 77.68853333499999</t>
+  </si>
+  <si>
+    <t>p-Value: 2.23980479251966e-06</t>
+  </si>
+  <si>
+    <t>RBC: 0.37530864197530867</t>
+  </si>
+  <si>
+    <t>p-Value: 0.4370793376279093</t>
+  </si>
+  <si>
+    <t>RBC: -0.06469002695417791</t>
+  </si>
+  <si>
+    <t>p-Value: 0.0001991953214731202</t>
+  </si>
+  <si>
+    <t>RBC: 0.32100708103855236</t>
   </si>
 </sst>
 </file>
@@ -586,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361B1453-CF2F-41AB-89F1-E3B8EB99AC77}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -641,7 +650,7 @@
         <v>12</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
@@ -1008,698 +1017,620 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="5">
+        <v>0</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="6">
+        <v>100</v>
+      </c>
+      <c r="D26" s="6">
+        <v>99.730457999999999</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5.1917410000000004</v>
+      </c>
+      <c r="G26" s="6">
+        <v>100</v>
+      </c>
+      <c r="H26" s="6">
+        <v>100</v>
+      </c>
+      <c r="I26" s="6">
+        <v>43</v>
+      </c>
+      <c r="J26" s="6">
+        <v>371</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.269542</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0.73949100000000001</v>
+      </c>
+      <c r="M26" s="6">
+        <v>7955</v>
+      </c>
+      <c r="N26" s="6">
+        <v>-2.6949999999999999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="7">
+        <v>95.813952999999998</v>
+      </c>
+      <c r="D27" s="7">
+        <v>97.771788000000001</v>
+      </c>
+      <c r="E27" s="7">
+        <v>9.0878440000000005</v>
+      </c>
+      <c r="F27" s="7">
+        <v>8.7305700000000002</v>
+      </c>
+      <c r="G27" s="7">
+        <v>100</v>
+      </c>
+      <c r="H27" s="7">
+        <v>100</v>
+      </c>
+      <c r="I27" s="7">
+        <v>43</v>
+      </c>
+      <c r="J27" s="7">
+        <v>371</v>
+      </c>
+      <c r="K27" s="7">
+        <v>-1.9578340000000001</v>
+      </c>
+      <c r="L27" s="7">
+        <v>5.8100000000000003E-4</v>
+      </c>
+      <c r="M27" s="7">
+        <v>6651.5</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0.16611300000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="5">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="6">
+        <v>94.263565999999997</v>
+      </c>
+      <c r="D28" s="6">
+        <v>98.041330000000002</v>
+      </c>
+      <c r="E28" s="6">
+        <v>16.624161000000001</v>
+      </c>
+      <c r="F28" s="6">
+        <v>7.9107310000000002</v>
+      </c>
+      <c r="G28" s="6">
+        <v>100</v>
+      </c>
+      <c r="H28" s="6">
+        <v>100</v>
+      </c>
+      <c r="I28" s="6">
+        <v>43</v>
+      </c>
+      <c r="J28" s="6">
+        <v>371</v>
+      </c>
+      <c r="K28" s="6">
+        <v>-3.7777639999999999</v>
+      </c>
+      <c r="L28" s="6">
+        <v>4.3610000000000003E-3</v>
+      </c>
+      <c r="M28" s="6">
+        <v>6767.5</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0.15157000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>3</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="7">
+        <v>93.953487999999993</v>
+      </c>
+      <c r="D29" s="7">
+        <v>98.364779999999996</v>
+      </c>
+      <c r="E29" s="7">
+        <v>17.687107000000001</v>
+      </c>
+      <c r="F29" s="7">
+        <v>6.0297489999999998</v>
+      </c>
+      <c r="G29" s="7">
+        <v>100</v>
+      </c>
+      <c r="H29" s="7">
+        <v>100</v>
+      </c>
+      <c r="I29" s="7">
+        <v>43</v>
+      </c>
+      <c r="J29" s="7">
+        <v>371</v>
+      </c>
+      <c r="K29" s="7">
+        <v>-4.4112920000000004</v>
+      </c>
+      <c r="L29" s="7">
+        <v>0.11244800000000001</v>
+      </c>
+      <c r="M29" s="7">
+        <v>7365</v>
+      </c>
+      <c r="N29" s="7">
+        <v>7.6662999999999995E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="5">
+        <v>4</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="6">
+        <v>92.248062000000004</v>
+      </c>
+      <c r="D30" s="6">
+        <v>98.382749000000004</v>
+      </c>
+      <c r="E30" s="6">
+        <v>21.866852000000002</v>
+      </c>
+      <c r="F30" s="6">
+        <v>5.9846360000000001</v>
+      </c>
+      <c r="G30" s="6">
+        <v>100</v>
+      </c>
+      <c r="H30" s="6">
+        <v>100</v>
+      </c>
+      <c r="I30" s="6">
+        <v>43</v>
+      </c>
+      <c r="J30" s="6">
+        <v>371</v>
+      </c>
+      <c r="K30" s="6">
+        <v>-6.1346869999999996</v>
+      </c>
+      <c r="L30" s="6">
+        <v>3.6939E-2</v>
+      </c>
+      <c r="M30" s="6">
+        <v>7091.5</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0.11095099999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>5</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="7">
+        <v>95.348837000000003</v>
+      </c>
+      <c r="D31" s="7">
+        <v>99.142366999999993</v>
+      </c>
+      <c r="E31" s="7">
+        <v>20.363876999999999</v>
+      </c>
+      <c r="F31" s="7">
+        <v>7.005185</v>
+      </c>
+      <c r="G31" s="7">
+        <v>100</v>
+      </c>
+      <c r="H31" s="7">
+        <v>100</v>
+      </c>
+      <c r="I31" s="7">
+        <v>43</v>
+      </c>
+      <c r="J31" s="7">
+        <v>371</v>
+      </c>
+      <c r="K31" s="7">
+        <v>-3.7935300000000001</v>
+      </c>
+      <c r="L31" s="7">
+        <v>6.0783999999999998E-2</v>
+      </c>
+      <c r="M31" s="7">
+        <v>7588</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4.8705999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="5">
+        <v>6</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="6">
+        <v>94.263565999999997</v>
+      </c>
+      <c r="D32" s="6">
+        <v>98.849954999999994</v>
+      </c>
+      <c r="E32" s="6">
+        <v>21.409655000000001</v>
+      </c>
+      <c r="F32" s="6">
+        <v>7.9106079999999999</v>
+      </c>
+      <c r="G32" s="6">
+        <v>100</v>
+      </c>
+      <c r="H32" s="6">
+        <v>100</v>
+      </c>
+      <c r="I32" s="6">
+        <v>43</v>
+      </c>
+      <c r="J32" s="6">
+        <v>371</v>
+      </c>
+      <c r="K32" s="6">
+        <v>-4.5863889999999996</v>
+      </c>
+      <c r="L32" s="6">
+        <v>4.1350999999999999E-2</v>
+      </c>
+      <c r="M32" s="6">
+        <v>7316.5</v>
+      </c>
+      <c r="N32" s="6">
+        <v>8.2742999999999997E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
+        <v>7</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>92.372093000000007</v>
+      </c>
+      <c r="D33" s="7">
+        <v>97.050134999999997</v>
+      </c>
+      <c r="E33" s="7">
+        <v>21.365825000000001</v>
+      </c>
+      <c r="F33" s="7">
+        <v>11.290013</v>
+      </c>
+      <c r="G33" s="7">
+        <v>100</v>
+      </c>
+      <c r="H33" s="7">
+        <v>100</v>
+      </c>
+      <c r="I33" s="7">
+        <v>43</v>
+      </c>
+      <c r="J33" s="7">
+        <v>371</v>
+      </c>
+      <c r="K33" s="7">
+        <v>-4.6780419999999996</v>
+      </c>
+      <c r="L33" s="7">
+        <v>3.2153000000000001E-2</v>
+      </c>
+      <c r="M33" s="7">
+        <v>6760</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0.15251000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="5">
+        <v>8</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <v>0</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="6">
-        <v>100</v>
-      </c>
-      <c r="D25" s="6">
-        <v>99.730457999999999</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>5.1917410000000004</v>
-      </c>
-      <c r="G25" s="6">
-        <v>100</v>
-      </c>
-      <c r="H25" s="6">
-        <v>100</v>
-      </c>
-      <c r="I25" s="6">
+      <c r="C34" s="6">
+        <v>89.503876000000005</v>
+      </c>
+      <c r="D34" s="6">
+        <v>97.905659999999997</v>
+      </c>
+      <c r="E34" s="6">
+        <v>24.453320999999999</v>
+      </c>
+      <c r="F34" s="6">
+        <v>8.2856159999999992</v>
+      </c>
+      <c r="G34" s="6">
+        <v>100</v>
+      </c>
+      <c r="H34" s="6">
+        <v>100</v>
+      </c>
+      <c r="I34" s="6">
         <v>43</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J34" s="6">
         <v>371</v>
       </c>
-      <c r="K25" s="6">
-        <v>0.269542</v>
-      </c>
-      <c r="L25" s="6">
-        <v>0.73949100000000001</v>
-      </c>
-      <c r="M25" s="6">
-        <v>7998</v>
-      </c>
-      <c r="N25" s="6">
-        <v>-2.6949999999999999E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A26" s="4">
-        <v>1</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="7">
-        <v>95.813952999999998</v>
-      </c>
-      <c r="D26" s="7">
-        <v>97.771788000000001</v>
-      </c>
-      <c r="E26" s="7">
-        <v>9.0878440000000005</v>
-      </c>
-      <c r="F26" s="7">
-        <v>8.7305700000000002</v>
-      </c>
-      <c r="G26" s="7">
-        <v>100</v>
-      </c>
-      <c r="H26" s="7">
-        <v>100</v>
-      </c>
-      <c r="I26" s="7">
-        <v>43</v>
-      </c>
-      <c r="J26" s="7">
-        <v>371</v>
-      </c>
-      <c r="K26" s="7">
-        <v>-1.9578340000000001</v>
-      </c>
-      <c r="L26" s="7">
-        <v>5.8100000000000003E-4</v>
-      </c>
-      <c r="M26" s="7">
-        <v>6651.5</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0.16611300000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
-        <v>2</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="6">
-        <v>94.263565999999997</v>
-      </c>
-      <c r="D27" s="6">
-        <v>98.041330000000002</v>
-      </c>
-      <c r="E27" s="6">
-        <v>16.624161000000001</v>
-      </c>
-      <c r="F27" s="6">
-        <v>7.9107310000000002</v>
-      </c>
-      <c r="G27" s="6">
-        <v>100</v>
-      </c>
-      <c r="H27" s="6">
-        <v>100</v>
-      </c>
-      <c r="I27" s="6">
-        <v>43</v>
-      </c>
-      <c r="J27" s="6">
-        <v>371</v>
-      </c>
-      <c r="K27" s="6">
-        <v>-3.7777639999999999</v>
-      </c>
-      <c r="L27" s="6">
-        <v>4.3610000000000003E-3</v>
-      </c>
-      <c r="M27" s="6">
-        <v>6767.5</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0.15157000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A28" s="4">
-        <v>3</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="7">
-        <v>93.953487999999993</v>
-      </c>
-      <c r="D28" s="7">
-        <v>98.364779999999996</v>
-      </c>
-      <c r="E28" s="7">
-        <v>17.687107000000001</v>
-      </c>
-      <c r="F28" s="7">
-        <v>6.0297489999999998</v>
-      </c>
-      <c r="G28" s="7">
-        <v>100</v>
-      </c>
-      <c r="H28" s="7">
-        <v>100</v>
-      </c>
-      <c r="I28" s="7">
-        <v>43</v>
-      </c>
-      <c r="J28" s="7">
-        <v>371</v>
-      </c>
-      <c r="K28" s="7">
-        <v>-4.4112920000000004</v>
-      </c>
-      <c r="L28" s="7">
-        <v>0.11244800000000001</v>
-      </c>
-      <c r="M28" s="7">
-        <v>7365</v>
-      </c>
-      <c r="N28" s="7">
-        <v>7.6662999999999995E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
-        <v>4</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="6">
-        <v>92.248062000000004</v>
-      </c>
-      <c r="D29" s="6">
-        <v>98.382749000000004</v>
-      </c>
-      <c r="E29" s="6">
-        <v>21.866852000000002</v>
-      </c>
-      <c r="F29" s="6">
-        <v>5.9846360000000001</v>
-      </c>
-      <c r="G29" s="6">
-        <v>100</v>
-      </c>
-      <c r="H29" s="6">
-        <v>100</v>
-      </c>
-      <c r="I29" s="6">
-        <v>43</v>
-      </c>
-      <c r="J29" s="6">
-        <v>371</v>
-      </c>
-      <c r="K29" s="6">
-        <v>-6.1346869999999996</v>
-      </c>
-      <c r="L29" s="6">
-        <v>3.6939E-2</v>
-      </c>
-      <c r="M29" s="6">
-        <v>7091.5</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0.11095099999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A30" s="4">
-        <v>5</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="7">
-        <v>95.348837000000003</v>
-      </c>
-      <c r="D30" s="7">
-        <v>99.142366999999993</v>
-      </c>
-      <c r="E30" s="7">
-        <v>20.363876999999999</v>
-      </c>
-      <c r="F30" s="7">
-        <v>7.005185</v>
-      </c>
-      <c r="G30" s="7">
-        <v>100</v>
-      </c>
-      <c r="H30" s="7">
-        <v>100</v>
-      </c>
-      <c r="I30" s="7">
-        <v>43</v>
-      </c>
-      <c r="J30" s="7">
-        <v>371</v>
-      </c>
-      <c r="K30" s="7">
-        <v>-3.7935300000000001</v>
-      </c>
-      <c r="L30" s="7">
-        <v>6.0783999999999998E-2</v>
-      </c>
-      <c r="M30" s="7">
-        <v>7588</v>
-      </c>
-      <c r="N30" s="7">
-        <v>4.8705999999999999E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
-        <v>6</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="6">
-        <v>94.263565999999997</v>
-      </c>
-      <c r="D31" s="6">
-        <v>98.849954999999994</v>
-      </c>
-      <c r="E31" s="6">
-        <v>21.409655000000001</v>
-      </c>
-      <c r="F31" s="6">
-        <v>7.9106079999999999</v>
-      </c>
-      <c r="G31" s="6">
-        <v>100</v>
-      </c>
-      <c r="H31" s="6">
-        <v>100</v>
-      </c>
-      <c r="I31" s="6">
-        <v>43</v>
-      </c>
-      <c r="J31" s="6">
-        <v>371</v>
-      </c>
-      <c r="K31" s="6">
-        <v>-4.5863889999999996</v>
-      </c>
-      <c r="L31" s="6">
-        <v>4.1350999999999999E-2</v>
-      </c>
-      <c r="M31" s="6">
-        <v>7316.5</v>
-      </c>
-      <c r="N31" s="6">
-        <v>8.2742999999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="4">
-        <v>7</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="7">
-        <v>92.372093000000007</v>
-      </c>
-      <c r="D32" s="7">
-        <v>97.050134999999997</v>
-      </c>
-      <c r="E32" s="7">
-        <v>21.365825000000001</v>
-      </c>
-      <c r="F32" s="7">
-        <v>11.290013</v>
-      </c>
-      <c r="G32" s="7">
-        <v>100</v>
-      </c>
-      <c r="H32" s="7">
-        <v>100</v>
-      </c>
-      <c r="I32" s="7">
-        <v>43</v>
-      </c>
-      <c r="J32" s="7">
-        <v>371</v>
-      </c>
-      <c r="K32" s="7">
-        <v>-4.6780419999999996</v>
-      </c>
-      <c r="L32" s="7">
-        <v>3.2153000000000001E-2</v>
-      </c>
-      <c r="M32" s="7">
-        <v>6760</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0.15251000000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
-        <v>8</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="6">
-        <v>89.503876000000005</v>
-      </c>
-      <c r="D33" s="6">
-        <v>97.905659999999997</v>
-      </c>
-      <c r="E33" s="6">
-        <v>24.453320999999999</v>
-      </c>
-      <c r="F33" s="6">
-        <v>8.2856159999999992</v>
-      </c>
-      <c r="G33" s="6">
-        <v>100</v>
-      </c>
-      <c r="H33" s="6">
-        <v>100</v>
-      </c>
-      <c r="I33" s="6">
-        <v>43</v>
-      </c>
-      <c r="J33" s="6">
-        <v>371</v>
-      </c>
-      <c r="K33" s="6">
+      <c r="K34" s="6">
         <v>-8.4017839999999993</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L34" s="6">
         <v>3.202E-3</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M34" s="6">
         <v>6715.5</v>
       </c>
-      <c r="N33" s="6">
+      <c r="N34" s="6">
         <v>0.15808900000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" ht="16" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4" t="s">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="16" x14ac:dyDescent="0.35">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C48" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H46" s="4" t="s">
+      <c r="H48" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I48" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J46" s="4" t="s">
+      <c r="J48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K46" s="4" t="s">
+      <c r="K48" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L46" s="4" t="s">
+      <c r="L48" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M46" s="4" t="s">
+      <c r="M48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N46" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
-        <v>0</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C47" s="6">
-        <v>83.935484000000002</v>
-      </c>
-      <c r="D47" s="6">
-        <v>92.731707</v>
-      </c>
-      <c r="E47" s="6">
-        <v>28.937394999999999</v>
-      </c>
-      <c r="F47" s="6">
-        <v>21.580522999999999</v>
-      </c>
-      <c r="G47" s="6">
-        <v>100</v>
-      </c>
-      <c r="H47" s="6">
-        <v>100</v>
-      </c>
-      <c r="I47" s="6">
-        <v>62</v>
-      </c>
-      <c r="J47" s="6">
-        <v>164</v>
-      </c>
-      <c r="K47" s="6">
-        <v>-8.7962229999999995</v>
-      </c>
-      <c r="L47" s="6">
-        <v>1.7619999999999999E-3</v>
-      </c>
-      <c r="M47" s="6">
-        <v>4018</v>
-      </c>
-      <c r="N47" s="6">
-        <v>0.209677</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A48" s="4">
-        <v>1</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="7">
-        <v>65.608064999999996</v>
-      </c>
-      <c r="D48" s="7">
-        <v>77.412194999999997</v>
-      </c>
-      <c r="E48" s="7">
-        <v>25.672969999999999</v>
-      </c>
-      <c r="F48" s="7">
-        <v>18.397732999999999</v>
-      </c>
-      <c r="G48" s="7">
-        <v>71.666667000000004</v>
-      </c>
-      <c r="H48" s="7">
-        <v>82.066666999999995</v>
-      </c>
-      <c r="I48" s="7">
-        <v>62</v>
-      </c>
-      <c r="J48" s="7">
-        <v>164</v>
-      </c>
-      <c r="K48" s="7">
-        <v>-11.804131</v>
-      </c>
-      <c r="L48" s="7">
-        <v>4.1399999999999998E-4</v>
-      </c>
-      <c r="M48" s="7">
-        <v>3535</v>
-      </c>
-      <c r="N48" s="7">
-        <v>0.30468099999999998</v>
+      <c r="N48" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C49" s="6">
-        <v>71.306989000000002</v>
+        <v>83.935484000000002</v>
       </c>
       <c r="D49" s="6">
-        <v>78.874593000000004</v>
+        <v>92.731707</v>
       </c>
       <c r="E49" s="6">
-        <v>22.439995</v>
+        <v>28.937394999999999</v>
       </c>
       <c r="F49" s="6">
-        <v>21.526926</v>
+        <v>21.580522999999999</v>
       </c>
       <c r="G49" s="6">
-        <v>77.016666999999998</v>
+        <v>100</v>
       </c>
       <c r="H49" s="6">
-        <v>85.783332999999999</v>
+        <v>100</v>
       </c>
       <c r="I49" s="6">
         <v>62</v>
@@ -1708,42 +1639,42 @@
         <v>164</v>
       </c>
       <c r="K49" s="6">
-        <v>-7.5676040000000002</v>
+        <v>-8.7962229999999995</v>
       </c>
       <c r="L49" s="6">
-        <v>3.3219999999999999E-3</v>
+        <v>1.7619999999999999E-3</v>
       </c>
       <c r="M49" s="6">
-        <v>3796</v>
+        <v>4018</v>
       </c>
       <c r="N49" s="6">
-        <v>0.25334400000000001</v>
+        <v>0.209677</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C50" s="7">
-        <v>72.5</v>
+        <v>65.608064999999996</v>
       </c>
       <c r="D50" s="7">
-        <v>78.887195000000006</v>
+        <v>77.412194999999997</v>
       </c>
       <c r="E50" s="7">
-        <v>28.403561</v>
+        <v>25.672969999999999</v>
       </c>
       <c r="F50" s="7">
-        <v>26.202306</v>
+        <v>18.397732999999999</v>
       </c>
       <c r="G50" s="7">
-        <v>80</v>
+        <v>71.666667000000004</v>
       </c>
       <c r="H50" s="7">
-        <v>90</v>
+        <v>82.066666999999995</v>
       </c>
       <c r="I50" s="7">
         <v>62</v>
@@ -1752,42 +1683,42 @@
         <v>164</v>
       </c>
       <c r="K50" s="7">
-        <v>-6.3871950000000002</v>
+        <v>-11.804131</v>
       </c>
       <c r="L50" s="7">
-        <v>5.3838999999999998E-2</v>
+        <v>4.1399999999999998E-4</v>
       </c>
       <c r="M50" s="7">
-        <v>4240</v>
+        <v>3535</v>
       </c>
       <c r="N50" s="7">
-        <v>0.16601099999999999</v>
+        <v>0.30468099999999998</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C51" s="6">
-        <v>60.709676999999999</v>
+        <v>71.306989000000002</v>
       </c>
       <c r="D51" s="6">
-        <v>67.507805000000005</v>
+        <v>78.874593000000004</v>
       </c>
       <c r="E51" s="6">
-        <v>28.485120999999999</v>
+        <v>22.439995</v>
       </c>
       <c r="F51" s="6">
-        <v>27.749333</v>
+        <v>21.526926</v>
       </c>
       <c r="G51" s="6">
-        <v>62.64</v>
+        <v>77.016666999999998</v>
       </c>
       <c r="H51" s="6">
-        <v>78.900000000000006</v>
+        <v>85.783332999999999</v>
       </c>
       <c r="I51" s="6">
         <v>62</v>
@@ -1796,42 +1727,42 @@
         <v>164</v>
       </c>
       <c r="K51" s="6">
-        <v>-6.798127</v>
+        <v>-7.5676040000000002</v>
       </c>
       <c r="L51" s="6">
-        <v>0.102767</v>
+        <v>3.3219999999999999E-3</v>
       </c>
       <c r="M51" s="6">
-        <v>4368</v>
+        <v>3796</v>
       </c>
       <c r="N51" s="6">
-        <v>0.14083399999999999</v>
+        <v>0.25334400000000001</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C52" s="7">
-        <v>69.166290000000004</v>
+        <v>72.5</v>
       </c>
       <c r="D52" s="7">
-        <v>78.072560999999993</v>
+        <v>78.887195000000006</v>
       </c>
       <c r="E52" s="7">
-        <v>23.91657</v>
+        <v>28.403561</v>
       </c>
       <c r="F52" s="7">
-        <v>22.152826999999998</v>
+        <v>26.202306</v>
       </c>
       <c r="G52" s="7">
-        <v>74.424999999999997</v>
+        <v>80</v>
       </c>
       <c r="H52" s="7">
-        <v>85.465000000000003</v>
+        <v>90</v>
       </c>
       <c r="I52" s="7">
         <v>62</v>
@@ -1840,42 +1771,42 @@
         <v>164</v>
       </c>
       <c r="K52" s="7">
-        <v>-8.9062710000000003</v>
+        <v>-6.3871950000000002</v>
       </c>
       <c r="L52" s="7">
-        <v>3.241E-3</v>
+        <v>5.3838999999999998E-2</v>
       </c>
       <c r="M52" s="7">
-        <v>3792.5</v>
+        <v>4240</v>
       </c>
       <c r="N52" s="7">
-        <v>0.25403199999999998</v>
+        <v>0.16601099999999999</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C53" s="6">
-        <v>78.412257999999994</v>
+        <v>60.709676999999999</v>
       </c>
       <c r="D53" s="6">
-        <v>85.224243999999999</v>
+        <v>67.507805000000005</v>
       </c>
       <c r="E53" s="6">
-        <v>24.581890000000001</v>
+        <v>28.485120999999999</v>
       </c>
       <c r="F53" s="6">
-        <v>20.473631000000001</v>
+        <v>27.749333</v>
       </c>
       <c r="G53" s="6">
-        <v>87.78</v>
+        <v>62.64</v>
       </c>
       <c r="H53" s="6">
-        <v>93.111999999999995</v>
+        <v>78.900000000000006</v>
       </c>
       <c r="I53" s="6">
         <v>62</v>
@@ -1884,42 +1815,42 @@
         <v>164</v>
       </c>
       <c r="K53" s="6">
-        <v>-6.8119860000000001</v>
+        <v>-6.798127</v>
       </c>
       <c r="L53" s="6">
-        <v>2.9544000000000001E-2</v>
+        <v>0.102767</v>
       </c>
       <c r="M53" s="6">
-        <v>4129.5</v>
+        <v>4368</v>
       </c>
       <c r="N53" s="6">
-        <v>0.187746</v>
+        <v>0.14083399999999999</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C54" s="7">
-        <v>73.930215000000004</v>
+        <v>69.166290000000004</v>
       </c>
       <c r="D54" s="7">
-        <v>82.395202999999995</v>
+        <v>78.072560999999993</v>
       </c>
       <c r="E54" s="7">
-        <v>25.724314</v>
+        <v>23.91657</v>
       </c>
       <c r="F54" s="7">
-        <v>21.519120999999998</v>
+        <v>22.152826999999998</v>
       </c>
       <c r="G54" s="7">
-        <v>80.296666999999999</v>
+        <v>74.424999999999997</v>
       </c>
       <c r="H54" s="7">
-        <v>90.18</v>
+        <v>85.465000000000003</v>
       </c>
       <c r="I54" s="7">
         <v>62</v>
@@ -1928,42 +1859,42 @@
         <v>164</v>
       </c>
       <c r="K54" s="7">
-        <v>-8.464988</v>
+        <v>-8.9062710000000003</v>
       </c>
       <c r="L54" s="7">
-        <v>4.0660000000000002E-3</v>
+        <v>3.241E-3</v>
       </c>
       <c r="M54" s="7">
-        <v>3825</v>
+        <v>3792.5</v>
       </c>
       <c r="N54" s="7">
-        <v>0.24764</v>
+        <v>0.25403199999999998</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C55" s="6">
-        <v>73.407499999999999</v>
+        <v>78.412257999999994</v>
       </c>
       <c r="D55" s="6">
-        <v>82.381889999999999</v>
+        <v>85.224243999999999</v>
       </c>
       <c r="E55" s="6">
-        <v>30.006903999999999</v>
+        <v>24.581890000000001</v>
       </c>
       <c r="F55" s="6">
-        <v>24.655462</v>
+        <v>20.473631000000001</v>
       </c>
       <c r="G55" s="6">
-        <v>88.165000000000006</v>
+        <v>87.78</v>
       </c>
       <c r="H55" s="6">
-        <v>92.972499999999997</v>
+        <v>93.111999999999995</v>
       </c>
       <c r="I55" s="6">
         <v>62</v>
@@ -1972,61 +1903,154 @@
         <v>164</v>
       </c>
       <c r="K55" s="6">
+        <v>-6.8119860000000001</v>
+      </c>
+      <c r="L55" s="6">
+        <v>2.9544000000000001E-2</v>
+      </c>
+      <c r="M55" s="6">
+        <v>4129.5</v>
+      </c>
+      <c r="N55" s="6">
+        <v>0.187746</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>7</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="7">
+        <v>73.930215000000004</v>
+      </c>
+      <c r="D56" s="7">
+        <v>82.395202999999995</v>
+      </c>
+      <c r="E56" s="7">
+        <v>25.724314</v>
+      </c>
+      <c r="F56" s="7">
+        <v>21.519120999999998</v>
+      </c>
+      <c r="G56" s="7">
+        <v>80.296666999999999</v>
+      </c>
+      <c r="H56" s="7">
+        <v>90.18</v>
+      </c>
+      <c r="I56" s="7">
+        <v>62</v>
+      </c>
+      <c r="J56" s="7">
+        <v>164</v>
+      </c>
+      <c r="K56" s="7">
+        <v>-8.464988</v>
+      </c>
+      <c r="L56" s="7">
+        <v>4.0660000000000002E-3</v>
+      </c>
+      <c r="M56" s="7">
+        <v>3825</v>
+      </c>
+      <c r="N56" s="7">
+        <v>0.24764</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" s="5">
+        <v>8</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="6">
+        <v>73.407499999999999</v>
+      </c>
+      <c r="D57" s="6">
+        <v>82.381889999999999</v>
+      </c>
+      <c r="E57" s="6">
+        <v>30.006903999999999</v>
+      </c>
+      <c r="F57" s="6">
+        <v>24.655462</v>
+      </c>
+      <c r="G57" s="6">
+        <v>88.165000000000006</v>
+      </c>
+      <c r="H57" s="6">
+        <v>92.972499999999997</v>
+      </c>
+      <c r="I57" s="6">
+        <v>62</v>
+      </c>
+      <c r="J57" s="6">
+        <v>164</v>
+      </c>
+      <c r="K57" s="6">
         <v>-8.9743899999999996</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L57" s="6">
         <v>8.9563000000000004E-2</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M57" s="6">
         <v>4340</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N57" s="6">
         <v>0.146341</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
